--- a/projectTest/chapter8/data/casedata.xlsx
+++ b/projectTest/chapter8/data/casedata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ydj/Desktop/ydj/projectAutoTest/projectTest/chapter6/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yang\AutoTestExample\projectTest\chapter8\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA7C40E-8DA3-4FAA-8AD4-0B9B22A952E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1200" windowWidth="24040" windowHeight="15480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -139,10 +140,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>login sucess</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>登录成功！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -256,18 +253,22 @@
   </si>
   <si>
     <t>密码长度在 6～20 位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login success</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -281,7 +282,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -295,7 +296,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -311,7 +312,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -390,15 +391,18 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -688,22 +692,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -723,7 +727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -737,223 +741,223 @@
         <v>32</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>21</v>
@@ -962,12 +966,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C12" r:id="rId2"/>
-    <hyperlink ref="C10:C13" r:id="rId3" display="admin@tynam.com"/>
-    <hyperlink ref="C9" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C5" r:id="rId6" display="admin@tynam.com"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C10:C13" r:id="rId3" display="admin@tynam.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C5" r:id="rId6" display="admin@tynam.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -975,14 +979,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/projectTest/chapter8/data/casedata.xlsx
+++ b/projectTest/chapter8/data/casedata.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yang\AutoTestExample\projectTest\chapter8\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ydj/Desktop/AutoTestExample/projectTest/chapter8/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA7C40E-8DA3-4FAA-8AD4-0B9B22A952E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -263,12 +262,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -282,7 +281,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -296,7 +295,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -312,7 +311,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -391,9 +390,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -692,22 +691,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -727,7 +726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -747,7 +746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -765,7 +764,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -785,7 +784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -805,7 +804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -825,7 +824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -845,7 +844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -865,7 +864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -883,7 +882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -903,7 +902,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -923,7 +922,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -943,7 +942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -966,12 +965,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C10:C13" r:id="rId3" display="admin@tynam.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C5" r:id="rId6" display="admin@tynam.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C12" r:id="rId2"/>
+    <hyperlink ref="C10:C13" r:id="rId3" display="admin@tynam.com"/>
+    <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6" display="admin@tynam.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -979,12 +978,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
